--- a/tests_cases/PE16 - TC - 01.xlsx
+++ b/tests_cases/PE16 - TC - 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Q-CHECK\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C10CF25-F69E-49B9-B5C8-DDC904D4C793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2240C6E9-CCB9-451B-8ED3-EE00DB617D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -271,9 +271,6 @@
     <t>ir al ecommerce</t>
   </si>
   <si>
-    <t>Test the Login Functionality in web app</t>
-  </si>
-  <si>
     <t>PE-16</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>Pre-requisites</t>
+  </si>
+  <si>
+    <t>Testing the "Create Account" functionality</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1073,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1104,13 +1104,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,6 +1237,39 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1255,38 +1282,44 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1303,52 +1336,9 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1391,6 +1381,25 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1764,7 +1773,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A10" sqref="A9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,711 +1794,711 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="114" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="D1" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="111"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="25">
         <v>0.1</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="23"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="56" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="E6" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="23"/>
+      <c r="B7" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="21"/>
       <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="E7" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="E7" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="E8" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="57">
+      <c r="C9" s="21"/>
+      <c r="D9" s="55">
         <v>4</v>
       </c>
-      <c r="E9" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="E9" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="19">
+      <c r="C10" s="21"/>
+      <c r="D10" s="17">
         <v>5</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="63">
+      <c r="A11" s="122"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="61">
         <v>6</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="63">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="61">
         <v>7</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="63">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="61">
         <v>8</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="63">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="61">
         <v>9</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="63">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="61">
         <v>10</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="118" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="120" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="117"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="119"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36" t="s">
+      <c r="B20" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="105" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="106"/>
+      <c r="H20" s="119"/>
     </row>
     <row r="21" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="107" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="108"/>
+      <c r="H21" s="104"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111" t="s">
+      <c r="C22" s="106"/>
+      <c r="D22" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="112"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="45" t="s">
+      <c r="E22" s="108"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="43" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="46">
+      <c r="A23" s="44">
         <v>1</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="113" t="s">
+      <c r="C23" s="87"/>
+      <c r="D23" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="113"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="47" t="s">
+      <c r="E23" s="109"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
+      <c r="A24" s="47">
         <v>2</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98" t="s">
+      <c r="C24" s="87"/>
+      <c r="D24" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="93"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="47" t="s">
+      <c r="E24" s="89"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46">
+      <c r="A25" s="44">
         <v>3</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="90" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="91"/>
-      <c r="D25" s="100" t="s">
+      <c r="D25" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="101"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="47" t="s">
+      <c r="E25" s="93"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="48" t="s">
+      <c r="H25" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="47">
         <v>4</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="103" t="s">
+      <c r="C26" s="87"/>
+      <c r="D26" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="104"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="47" t="s">
+      <c r="E26" s="96"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50">
+      <c r="A27" s="48">
         <v>5</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88" t="s">
+      <c r="C27" s="98"/>
+      <c r="D27" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="47" t="s">
+      <c r="E27" s="100"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46">
+      <c r="A28" s="44">
         <v>6</v>
       </c>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="101" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="91"/>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="47" t="s">
+      <c r="E28" s="89"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="H28" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="51">
+      <c r="A29" s="49">
         <v>7</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="80" t="s">
+      <c r="C29" s="83"/>
+      <c r="D29" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="47" t="s">
+      <c r="E29" s="79"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="48" t="s">
+      <c r="H29" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51">
+      <c r="A30" s="49">
         <v>8</v>
       </c>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="82" t="s">
+      <c r="C30" s="85"/>
+      <c r="D30" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="47" t="s">
+      <c r="E30" s="75"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="48" t="s">
+      <c r="H30" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="52">
+      <c r="A31" s="50">
         <v>9</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="82" t="s">
+      <c r="C31" s="81"/>
+      <c r="D31" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="47" t="s">
+      <c r="E31" s="75"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="51">
+      <c r="A32" s="49">
         <v>10</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="84" t="s">
+      <c r="C32" s="81"/>
+      <c r="D32" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="47" t="s">
+      <c r="E32" s="77"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52">
+      <c r="A33" s="50">
         <v>11</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="80" t="s">
+      <c r="C33" s="83"/>
+      <c r="D33" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="81"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="47" t="s">
+      <c r="E33" s="79"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="H33" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51">
+      <c r="A34" s="49">
         <v>12</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76" t="s">
+      <c r="C34" s="69"/>
+      <c r="D34" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="77"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="47" t="s">
+      <c r="E34" s="71"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="48" t="s">
+      <c r="H34" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53">
+      <c r="A35" s="51">
         <v>13</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="76" t="s">
+      <c r="C35" s="73"/>
+      <c r="D35" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="47" t="s">
+      <c r="E35" s="71"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="48" t="s">
+      <c r="H35" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53">
+      <c r="A36" s="51">
         <v>14</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="76" t="s">
+      <c r="C36" s="73"/>
+      <c r="D36" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="47" t="s">
+      <c r="E36" s="71"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="H36" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54">
+      <c r="A37" s="52">
         <v>15</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="76" t="s">
+      <c r="C37" s="73"/>
+      <c r="D37" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="47" t="s">
+      <c r="E37" s="71"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="48" t="s">
+      <c r="H37" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="68" t="s">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="68"/>
+      <c r="H40" s="66"/>
     </row>
     <row r="41" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E49" s="1"/>
@@ -2499,12 +2508,13 @@
     </row>
     <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="44">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
@@ -2670,6 +2680,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005ACBF82FF32280448C88565210D23A47" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="97d18655ea211e7533acd5a2318ca8a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c71177d-84a1-4dd9-b712-f5a48054c455" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4416c93f0313e0694190cc26fdb99745" ns2:_="">
     <xsd:import namespace="9c71177d-84a1-4dd9-b712-f5a48054c455"/>
@@ -2801,22 +2826,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D9EE348-9CCE-471E-BE4A-E92394DC64F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3E2D575-FFD0-4884-BFC5-ACB7CFB69618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69FDEB6B-1403-4F25-B1A4-5EE5DE15C544}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2832,21 +2859,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D9EE348-9CCE-471E-BE4A-E92394DC64F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3E2D575-FFD0-4884-BFC5-ACB7CFB69618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>